--- a/biology/Botanique/Ophrys_virescens/Ophrys_virescens.xlsx
+++ b/biology/Botanique/Ophrys_virescens/Ophrys_virescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys sphegodes subsp. araneola, Ophrys araneola, Ophrys litigiosa, Ophrys virescens
 L'Ophrys petite araignée ou Ophrys litigieux (Ophrys sphegodes subsp. araneola, synonymes Ophrys araneola, Ophrys litigiosa, Ophrys virescens), est une orchidée terrestre européenne , sous-espèce d’Ophrys sphegodes, cette plante ayant été considérée par de nombreux auteurs comme formant une espèce à part.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est assez robuste, elle mesure de 15 à 30 cm de haut. Les sépales et pétales sont vert clair. Les pétales sont petits, légèrement plus sombres que les sépales. Ces derniers sont assez arrondis, bien différenciables des pétales. Le labelle est assez sombre, composé d'une macule simple centrée sur le lobe médian. Le labelle possède un appendice minuscule, à peine visible (pouvant être parfois totalement absent). Le labelle est bordé d'une marge jaune pouvant tirer sur l'orangé. Le gynostème est en forme de bec.
 </t>
@@ -546,7 +560,9 @@
           <t>Population et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces orchidées peuvent se rencontrer en populations assez importantes (certaines stations comptent une trentaine de plantes). Elles poussent sur sols calcaires (comme beaucoup d'Ophrys), de pleine lumière à mi-ombre.
 </t>
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige apparaît en mars ; la floraison a lieu en avril et mai (parfois juin pour les plus tardives).
 </t>
@@ -608,7 +626,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, on la trouve dans les zones méditerranéennes (elle semble bien représentée en Provence).
 </t>
@@ -639,7 +659,9 @@
           <t>Autres espèces du groupe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ophrys noir
 Ophrys araignée</t>
